--- a/Data/DesignExplorationData/Observation/Observation_Data.xlsx
+++ b/Data/DesignExplorationData/Observation/Observation_Data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC7BDCD0-815B-42E2-8C91-F58E9EFC21F7}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{430B7FF2-B85F-4177-8DC9-31D424CAB2FC}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +445,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -663,8 +664,8 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>3</v>
+      <c r="F13" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
